--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail3 Features.xlsx
@@ -6130,7 +6130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,29 +6141,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6184,115 +6182,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6309,72 +6297,66 @@
         <v>1.624231924028238e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.732350784063624</v>
+        <v>5.952118581210445e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.84068290137483</v>
+        <v>1.982536146421744e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.952118581210445e-07</v>
+        <v>0.05371760570143305</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.982536146421744e-06</v>
+        <v>0.1331062705712016</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05371760570143305</v>
+        <v>0.02059488209380658</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1331062705712016</v>
+        <v>1.758666045948968</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02059488209380658</v>
+        <v>1.737433272197887</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.693846336231053</v>
+        <v>4.028155263207935</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.737433272197887</v>
+        <v>1.552164735224024e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.028155263207935</v>
+        <v>94579509.72945343</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.552164735224024e-15</v>
+        <v>1.220654292076348e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>94579509.72945343</v>
+        <v>13.88455384465798</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.220654292076348e-06</v>
+        <v>0.000168418134294643</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.88455384465798</v>
+        <v>9.966712721130149</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000168418134294643</v>
+        <v>1.15942401793937</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.966712721130149</v>
+        <v>0.01672987641592794</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.15942401793937</v>
+        <v>2.660993180072885</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01672987641592794</v>
+        <v>0.956343421241047</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.660993180072885</v>
+        <v>1.687875192044189</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.956343421241047</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.687875192044189</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1736898533867985</v>
       </c>
     </row>
@@ -6389,72 +6371,66 @@
         <v>1.541954091973113e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.869030766975726</v>
+        <v>6.038153475577887e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.529817244478873</v>
+        <v>1.991804263496553e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.038153475577887e-07</v>
+        <v>0.06317879672190756</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.991804263496553e-06</v>
+        <v>0.1331423674570315</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06317879672190756</v>
+        <v>0.02171547981554773</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1331423674570315</v>
+        <v>1.743049369994518</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02171547981554773</v>
+        <v>1.650611769984022</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.681841930890567</v>
+        <v>3.991452205434439</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.650611769984022</v>
+        <v>1.580841575969807e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.991452205434439</v>
+        <v>94278829.03659829</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.580841575969807e-15</v>
+        <v>1.215768084801778e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>94278829.03659829</v>
+        <v>14.05130656112081</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.215768084801778e-06</v>
+        <v>0.0001677996328952305</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.05130656112081</v>
+        <v>8.709945745143573</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001677996328952305</v>
+        <v>1.381372638049681</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.709945745143573</v>
+        <v>0.01272980953969924</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.381372638049681</v>
+        <v>2.843790889824934</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01272980953969924</v>
+        <v>0.9562390662598518</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.843790889824934</v>
+        <v>1.664649319439986</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9562390662598518</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.664649319439986</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1724273530685545</v>
       </c>
     </row>
@@ -6469,72 +6445,66 @@
         <v>1.436059947832377e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.97910906345746</v>
+        <v>6.206780321585641e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.233427395623781</v>
+        <v>2.001882173611044e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.206780321585641e-07</v>
+        <v>0.07192505618580416</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.001882173611044e-06</v>
+        <v>0.1406638279818495</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07192505618580416</v>
+        <v>0.0249594990930476</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1406638279818495</v>
+        <v>1.700547538523449</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0249594990930476</v>
+        <v>1.598162523856004</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.625904695727861</v>
+        <v>3.721464778089085</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.598162523856004</v>
+        <v>1.818538039840595e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.721464778089085</v>
+        <v>83081186.52587011</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.818538039840595e-15</v>
+        <v>1.366793784866766e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>83081186.52587011</v>
+        <v>12.55242891331679</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.366793784866766e-06</v>
+        <v>0.0001850838647289279</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.55242891331679</v>
+        <v>8.735852207932075</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001850838647289279</v>
+        <v>1.654149287451754</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.735852207932075</v>
+        <v>0.01412469619911571</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.654149287451754</v>
+        <v>2.905209741849291</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01412469619911571</v>
+        <v>0.9564181119965005</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.905209741849291</v>
+        <v>1.736620883939961</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9564181119965005</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.736620883939961</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1722423585264738</v>
       </c>
     </row>
@@ -6549,72 +6519,66 @@
         <v>1.312360635246661e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.036757193232135</v>
+        <v>6.24476310973795e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.824679977425566</v>
+        <v>2.012292589260147e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.24476310973795e-07</v>
+        <v>0.07930858694497428</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.012292589260147e-06</v>
+        <v>0.1537048021500552</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07930858694497428</v>
+        <v>0.02991455603720141</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1537048021500552</v>
+        <v>1.692886834039324</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02991455603720141</v>
+        <v>1.563530010507673</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.614145743186348</v>
+        <v>3.663082702485503</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.563530010507673</v>
+        <v>1.866489904222463e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.663082702485503</v>
+        <v>81521955.89215468</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.866489904222463e-15</v>
+        <v>1.394770098425164e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>81521955.89215468</v>
+        <v>12.40437327960434</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.394770098425164e-06</v>
+        <v>0.000197681674458932</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.40437327960434</v>
+        <v>11.20060946869211</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000197681674458932</v>
+        <v>1.355132513582257</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.20060946869211</v>
+        <v>0.02479988808728927</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.355132513582257</v>
+        <v>2.839280210332477</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02479988808728927</v>
+        <v>0.9562892258194378</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.839280210332477</v>
+        <v>1.749638909993549</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9562892258194378</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.749638909993549</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1883077305764972</v>
       </c>
     </row>
@@ -6629,72 +6593,66 @@
         <v>1.179343804939578e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.016553728034993</v>
+        <v>6.012272046604698e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.161343885515185</v>
+        <v>2.022542444918362e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.012272046604698e-07</v>
+        <v>0.08497934011291486</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.022542444918362e-06</v>
+        <v>0.1698287129275224</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08497934011291486</v>
+        <v>0.03605679669304343</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1698287129275224</v>
+        <v>1.715721533569439</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03605679669304343</v>
+        <v>1.768322627390234</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.639598106566552</v>
+        <v>3.402517043784361</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.768322627390234</v>
+        <v>1.735418892112773e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.402517043784361</v>
+        <v>87966299.23629721</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.735418892112773e-15</v>
+        <v>1.296532630574677e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>87966299.23629721</v>
+        <v>13.42879252171503</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.296532630574677e-06</v>
+        <v>0.0001730324624442245</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.42879252171503</v>
+        <v>13.20886286502884</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001730324624442245</v>
+        <v>1.101793153486364</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.20886286502884</v>
+        <v>0.03018967592075738</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.101793153486364</v>
+        <v>2.824980742821584</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03018967592075738</v>
+        <v>0.9570570789145232</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.824980742821584</v>
+        <v>1.733770671216512</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9570570789145232</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.733770671216512</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2093381213871373</v>
       </c>
     </row>
@@ -6709,72 +6667,66 @@
         <v>1.048727544425188e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.902422587979136</v>
+        <v>5.581204048068538e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.167376574439628</v>
+        <v>2.032217335435752e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.581204048068538e-07</v>
+        <v>0.08871954773260173</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.032217335435752e-06</v>
+        <v>0.185574088338545</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08871954773260173</v>
+        <v>0.04229531460711846</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.185574088338545</v>
+        <v>1.735243242602802</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04229531460711846</v>
+        <v>1.661751117077532</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.66256956286025</v>
+        <v>3.424355203720275</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.661751117077532</v>
+        <v>1.713354878086338e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.424355203720275</v>
+        <v>88338790.20168237</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.713354878086338e-15</v>
+        <v>1.309181157715712e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>88338790.20168237</v>
+        <v>13.37057917338604</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.309181157715712e-06</v>
+        <v>0.0001361849280045696</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>13.37057917338604</v>
+        <v>10.86095072835674</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001361849280045696</v>
+        <v>1.161268305185246</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.86095072835674</v>
+        <v>0.01606440825222072</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.161268305185246</v>
+        <v>3.018866353072274</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01606440825222072</v>
+        <v>0.9563530642814779</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.018866353072274</v>
+        <v>1.704795027182898</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9563530642814779</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.704795027182898</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2112055972808585</v>
       </c>
     </row>
@@ -6789,72 +6741,66 @@
         <v>9.286184237478497e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.674285349211508</v>
+        <v>5.117690013099209e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.766411619135074</v>
+        <v>2.041134740125697e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.117690013099209e-07</v>
+        <v>0.0918789026927527</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.041134740125697e-06</v>
+        <v>0.2014925299458923</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0918789026927527</v>
+        <v>0.04902164552720977</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2014925299458923</v>
+        <v>1.741351508570837</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04902164552720977</v>
+        <v>1.627608543755231</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.673303286321544</v>
+        <v>3.769870174482274</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.627608543755231</v>
+        <v>1.338056031345394e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.769870174482274</v>
+        <v>117341916.8694376</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.338056031345394e-15</v>
+        <v>9.895283972751292e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>117341916.8694376</v>
+        <v>18.42386136087089</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.895283972751292e-07</v>
+        <v>0.0001264881674809416</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>18.42386136087089</v>
+        <v>8.652069419120224</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001264881674809416</v>
+        <v>1.220711160112315</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.652069419120224</v>
+        <v>0.009468689849685978</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.220711160112315</v>
+        <v>3.094066359300087</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009468689849685978</v>
+        <v>0.9549735795817399</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.094066359300087</v>
+        <v>1.683951166937294</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9549735795817399</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.683951166937294</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2097359687516623</v>
       </c>
     </row>
@@ -6869,72 +6815,66 @@
         <v>8.232278792429693e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.304726609987202</v>
+        <v>4.619195279117172e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.822786257045401</v>
+        <v>2.049257359409282e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.619195279117172e-07</v>
+        <v>0.09355131115861047</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.049257359409282e-06</v>
+        <v>0.2159934734264344</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.09355131115861047</v>
+        <v>0.0553766127266386</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2159934734264344</v>
+        <v>1.748364787648084</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0553766127266386</v>
+        <v>1.793902232264638</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.683618316812487</v>
+        <v>4.003252963540357</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.793902232264638</v>
+        <v>1.186590921001257e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.003252963540357</v>
+        <v>132781301.9853616</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.186590921001257e-15</v>
+        <v>8.749434405065433e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>132781301.9853616</v>
+        <v>20.92063520392621</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.749434405065433e-07</v>
+        <v>0.0001264719494133774</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>20.92063520392621</v>
+        <v>7.39912874026003</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001264719494133774</v>
+        <v>1.382385754349273</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.39912874026003</v>
+        <v>0.006923973235097747</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.382385754349273</v>
+        <v>3.171742624651728</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006923973235097747</v>
+        <v>0.9560131898126385</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.171742624651728</v>
+        <v>1.695563258743411</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9560131898126385</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.695563258743411</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2066827248374683</v>
       </c>
     </row>
@@ -6949,72 +6889,66 @@
         <v>7.37167571225577e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.8234608145868452</v>
+        <v>4.053267197356875e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.442850558718172</v>
+        <v>2.056486766397514e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.053267197356875e-07</v>
+        <v>0.09138721233813354</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.056486766397514e-06</v>
+        <v>0.225348249909816</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.09138721233813354</v>
+        <v>0.05909381508074971</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.225348249909816</v>
+        <v>1.741516466561107</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05909381508074971</v>
+        <v>1.851747449697287</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.671865777013078</v>
+        <v>3.630657500098922</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.851747449697287</v>
+        <v>1.442635203771086e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.630657500098922</v>
+        <v>106650208.2362194</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.442635203771086e-15</v>
+        <v>1.085760636099822e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>106650208.2362194</v>
+        <v>16.40891787130628</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.085760636099822e-06</v>
+        <v>0.0001221453785696138</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>16.40891787130628</v>
+        <v>6.804442942909407</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001221453785696138</v>
+        <v>1.605972114356489</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.804442942909407</v>
+        <v>0.005655385231410568</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.605972114356489</v>
+        <v>3.262994028818238</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.005655385231410568</v>
+        <v>0.9551513117463417</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.262994028818238</v>
+        <v>1.705818029391547</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9551513117463417</v>
+        <v>20</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.705818029391547</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2211570363421333</v>
       </c>
     </row>
@@ -7029,72 +6963,66 @@
         <v>6.733451282400513e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3521082446457295</v>
+        <v>3.464665027629139e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.08646602107281165</v>
+        <v>2.062680917449228e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.464665027629139e-07</v>
+        <v>0.08376402251246133</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.062680917449228e-06</v>
+        <v>0.2265132226115824</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.08376402251246133</v>
+        <v>0.0582735723334876</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2265132226115824</v>
+        <v>1.729003216731442</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0582735723334876</v>
+        <v>1.783964245572552</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.651895228843334</v>
+        <v>3.47922512750063</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.783964245572552</v>
+        <v>1.570948783583718e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.47922512750063</v>
+        <v>96534956.59436128</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.570948783583718e-15</v>
+        <v>1.188821269941149e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>96534956.59436128</v>
+        <v>14.63966832831182</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.188821269941149e-06</v>
+        <v>0.0001177231522006495</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14.63966832831182</v>
+        <v>7.960007641389979</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001177231522006495</v>
+        <v>1.192896846171729</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.960007641389979</v>
+        <v>0.007459141601614314</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.192896846171729</v>
+        <v>3.184908367476921</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007459141601614314</v>
+        <v>0.9533994348752165</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.184908367476921</v>
+        <v>1.677081925805739</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9533994348752165</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.677081925805739</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2355419772517516</v>
       </c>
     </row>
@@ -7109,72 +7037,66 @@
         <v>6.321084825272816e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03890778589240958</v>
+        <v>2.884665505688833e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7590805535484724</v>
+        <v>2.067751235440883e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.884665505688833e-07</v>
+        <v>0.07148262250289927</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.067751235440883e-06</v>
+        <v>0.2176720107675393</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.07148262250289927</v>
+        <v>0.05244201813982832</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2176720107675393</v>
+        <v>1.721668704053004</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05244201813982832</v>
+        <v>1.718430036666265</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.640032395971875</v>
+        <v>3.496064756077263</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.718430036666265</v>
+        <v>1.55585153315697e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.496064756077263</v>
+        <v>93730999.79321563</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.55585153315697e-15</v>
+        <v>1.218678442952931e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>93730999.79321563</v>
+        <v>13.6689341459016</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.218678442952931e-06</v>
+        <v>0.0001256754099721797</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>13.6689341459016</v>
+        <v>8.884493614890729</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001256754099721797</v>
+        <v>1.185394001776688</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.884493614890729</v>
+        <v>0.009920091313051578</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.185394001776688</v>
+        <v>2.945523577306584</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009920091313051578</v>
+        <v>0.9532152935655926</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.945523577306584</v>
+        <v>1.72672492714163</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9532152935655926</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.72672492714163</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2306506112061067</v>
       </c>
     </row>
@@ -7189,72 +7111,66 @@
         <v>6.092752387621072e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.08157227411864883</v>
+        <v>2.400851010127534e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.084829919493323</v>
+        <v>2.071771272989441e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.400851010127534e-07</v>
+        <v>0.05850109435958388</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.071771272989441e-06</v>
+        <v>0.2069718392114242</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05850109435958388</v>
+        <v>0.04622824397557305</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2069718392114242</v>
+        <v>1.72318061998961</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04622824397557305</v>
+        <v>1.64784164293443</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.644179033561028</v>
+        <v>3.564767558571132</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.64784164293443</v>
+        <v>1.496458422840788e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.564767558571132</v>
+        <v>98000216.00191438</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.496458422840788e-15</v>
+        <v>1.164339211927036e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>98000216.00191438</v>
+        <v>14.37205004765804</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.164339211927036e-06</v>
+        <v>0.000128099792530591</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>14.37205004765804</v>
+        <v>8.334899789092395</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000128099792530591</v>
+        <v>1.264888327117221</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.334899789092395</v>
+        <v>0.008899163617693736</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.264888327117221</v>
+        <v>2.997904079129858</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008899163617693736</v>
+        <v>0.9555866425312179</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.997904079129858</v>
+        <v>1.740622516568311</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9555866425312179</v>
+        <v>18</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.740622516568311</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2180511496470185</v>
       </c>
     </row>
@@ -7269,72 +7185,66 @@
         <v>5.980270057274399e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.08198485317973675</v>
+        <v>2.019344262097752e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.166629330042419</v>
+        <v>2.074947329598668e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.019344262097752e-07</v>
+        <v>0.04703902542455667</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.074947329598668e-06</v>
+        <v>0.1980532139838286</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04703902542455667</v>
+        <v>0.04141346404728947</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1980532139838286</v>
+        <v>1.721200290248694</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04141346404728947</v>
+        <v>1.61252969161853</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.644781013706148</v>
+        <v>3.70620606925859</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.61252969161853</v>
+        <v>1.384420313014339e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.70620606925859</v>
+        <v>106205089.7882512</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.384420313014339e-15</v>
+        <v>1.074385041254009e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>106205089.7882512</v>
+        <v>15.61559812766437</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.074385041254009e-06</v>
+        <v>0.0001322773508292058</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>15.61559812766437</v>
+        <v>8.098968100436581</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001322773508292058</v>
+        <v>1.37524890207424</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.098968100436581</v>
+        <v>0.008676505878318077</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.37524890207424</v>
+        <v>2.995759930991592</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008676505878318077</v>
+        <v>0.9556689469509413</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.995759930991592</v>
+        <v>1.724670306144231</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9556689469509413</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.724670306144231</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2147486351520596</v>
       </c>
     </row>
@@ -7349,72 +7259,66 @@
         <v>5.943906383805661e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.02718043923956059</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.173343640783909</v>
+        <v>2.077407658403684e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>0.03541599470294522</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.077407658403684e-06</v>
+        <v>0.1855827064152143</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03541599470294522</v>
+        <v>0.03566897504767548</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1855827064152143</v>
+        <v>1.713677268303689</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03566897504767548</v>
+        <v>1.680554595280997</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.635715237940619</v>
+        <v>3.680572718248909</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.680554595280997</v>
+        <v>1.21115375651269e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.680572718248909</v>
+        <v>124412916.1456287</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.21115375651269e-15</v>
+        <v>9.15932284009062e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>124412916.1456287</v>
+        <v>18.74693268688766</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.15932284009062e-07</v>
+        <v>0.0001426909805695805</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>18.74693268688766</v>
+        <v>8.651271011733249</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001426909805695805</v>
+        <v>1.439361637319332</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.651271011733249</v>
+        <v>0.01067963368523277</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.439361637319332</v>
+        <v>2.89084646117079</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01067963368523277</v>
+        <v>0.9558134575004902</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.89084646117079</v>
+        <v>1.728823209427497</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9558134575004902</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.728823209427497</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2196615849119206</v>
       </c>
     </row>
@@ -7429,72 +7333,66 @@
         <v>5.955847158868927e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03618005273695196</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.182342095091534</v>
+        <v>2.079143777500667e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>0.02301547429141881</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.079143777500667e-06</v>
+        <v>0.1709235386175342</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02301547429141881</v>
+        <v>0.02972167615485087</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1709235386175342</v>
+        <v>1.719490847461727</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02972167615485087</v>
+        <v>1.69777477471651</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.64236518238879</v>
+        <v>3.747528234703806</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.69777477471651</v>
+        <v>1.168262021418085e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.747528234703806</v>
+        <v>131871547.2425665</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.168262021418085e-15</v>
+        <v>8.670001318331334e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>131871547.2425665</v>
+        <v>20.31619918743484</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.670001318331334e-07</v>
+        <v>0.0001647847570106646</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>20.31619918743484</v>
+        <v>9.882655102559628</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001647847570106646</v>
+        <v>1.397503795205969</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.882655102559628</v>
+        <v>0.01609401175010273</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.397503795205969</v>
+        <v>2.628346411294019</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01609401175010273</v>
+        <v>0.9546814594068447</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.628346411294019</v>
+        <v>1.737642537371399</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9546814594068447</v>
+        <v>21</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.737642537371399</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2283358477492676</v>
       </c>
     </row>
@@ -7509,72 +7407,66 @@
         <v>5.981276629454965e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.07797686619238631</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.203482363063665</v>
+        <v>2.080153011653546e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>0.0109101808795958</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.080153011653546e-06</v>
+        <v>0.1578400771092504</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0109101808795958</v>
+        <v>0.02501235736071442</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1578400771092504</v>
+        <v>1.717846531242914</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02501235736071442</v>
+        <v>1.664546135163181</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.640727937788859</v>
+        <v>4.029735264114803</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.664546135163181</v>
+        <v>1.01036211683052e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.029735264114803</v>
+        <v>150449560.2654711</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.01036211683052e-15</v>
+        <v>7.606245030033318e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>150449560.2654711</v>
+        <v>22.86961742578801</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.606245030033318e-07</v>
+        <v>0.0001777969901465757</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.86961742578801</v>
+        <v>10.34306934296847</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001777969901465757</v>
+        <v>1.368658136722526</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.34306934296847</v>
+        <v>0.01902055904310757</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.368658136722526</v>
+        <v>2.488496915094724</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01902055904310757</v>
+        <v>0.9520125196139575</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.488496915094724</v>
+        <v>1.706549225233337</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9520125196139575</v>
+        <v>21</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.706549225233337</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.231905927223939</v>
       </c>
     </row>
@@ -7589,72 +7481,66 @@
         <v>5.993485509814451e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.09045277334946562</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.214662506444669</v>
+        <v>2.080464698409745e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-3.289300812994476e-05</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.080464698409745e-06</v>
+        <v>0.148445548405737</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-3.289300812994476e-05</v>
+        <v>0.0220252688074588</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.148445548405737</v>
+        <v>1.753316912320658</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0220252688074588</v>
+        <v>1.822991214512055</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.682714845342625</v>
+        <v>3.870091391758433</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.822991214512055</v>
+        <v>8.321344978691877e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.870091391758433</v>
+        <v>187839374.6994016</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.321344978691877e-16</v>
+        <v>6.17956492567879e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>187839374.6994016</v>
+        <v>29.36072630511321</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.17956492567879e-07</v>
+        <v>0.0001556963187741219</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>29.36072630511321</v>
+        <v>9.085927915307391</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001556963187741219</v>
+        <v>1.399834951202396</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.085927915307391</v>
+        <v>0.01285336730275461</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.399834951202396</v>
+        <v>2.772866797558263</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01285336730275461</v>
+        <v>0.9525257931625678</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.772866797558263</v>
+        <v>1.682973002365427</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9525257931625678</v>
+        <v>20</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.682973002365427</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2339196531732378</v>
       </c>
     </row>
@@ -7669,72 +7555,66 @@
         <v>5.981992834597448e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.08196764531641258</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.204273179251635</v>
+        <v>2.080227672992556e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.007221530399236936</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.080227672992556e-06</v>
+        <v>0.1479788029084222</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.007221530399236936</v>
+        <v>0.02194618705659825</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1479788029084222</v>
+        <v>1.798652001893991</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02194618705659825</v>
+        <v>1.707410864803321</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.73735100580363</v>
+        <v>4.118193565983134</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.707410864803321</v>
+        <v>7.23885076100919e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.118193565983134</v>
+        <v>215749136.426553</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.23885076100919e-16</v>
+        <v>5.448714473049543e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>215749136.426553</v>
+        <v>33.69517802300069</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.448714473049543e-07</v>
+        <v>0.0001423093979162747</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>33.69517802300069</v>
+        <v>8.357463904386481</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001423093979162747</v>
+        <v>1.460760042920982</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.357463904386481</v>
+        <v>0.009939913392702391</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.460760042920982</v>
+        <v>2.90957688139353</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009939913392702391</v>
+        <v>0.9522145695012516</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.90957688139353</v>
+        <v>1.642273786584235</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9522145695012516</v>
+        <v>43</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.642273786584235</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2458870287894861</v>
       </c>
     </row>
@@ -7749,72 +7629,66 @@
         <v>5.95655094961382e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.06077564925574139</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.181048375604272</v>
+        <v>2.079658268363195e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.0115665888516898</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.079658268363195e-06</v>
+        <v>0.1505861211594606</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0115665888516898</v>
+        <v>0.02280724856268598</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1505861211594606</v>
+        <v>1.809007991265305</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02280724856268598</v>
+        <v>1.843848411701613</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.754753496116266</v>
+        <v>4.343391214924386</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.843848411701613</v>
+        <v>5.725827276027859e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.343391214924386</v>
+        <v>269897194.9639199</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.725827276027859e-16</v>
+        <v>4.360105487102611e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>269897194.9639199</v>
+        <v>41.7095001242948</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.360105487102611e-07</v>
+        <v>0.0001409903336069461</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>41.7095001242948</v>
+        <v>8.556808163774882</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001409903336069461</v>
+        <v>1.375509408093772</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.556808163774882</v>
+        <v>0.01032316643587798</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.375509408093772</v>
+        <v>2.884549323076738</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01032316643587798</v>
+        <v>0.95078026678601</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.884549323076738</v>
+        <v>1.620338852178746</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.95078026678601</v>
+        <v>43</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.620338852178746</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2382980721322071</v>
       </c>
     </row>
@@ -7829,72 +7703,66 @@
         <v>5.927980548096494e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02922200950776195</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.153794004205616</v>
+        <v>2.078874954344202e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.0147211202336168</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.078874954344202e-06</v>
+        <v>0.1531782844569015</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0147211202336168</v>
+        <v>0.0236779964949468</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1531782844569015</v>
+        <v>1.826151613322099</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0236779964949468</v>
+        <v>1.982332583173656</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.776917664650081</v>
+        <v>4.334293490527021</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.982332583173656</v>
+        <v>5.749889637944601e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.334293490527021</v>
+        <v>268038098.799544</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.749889637944601e-16</v>
+        <v>4.406897621149794e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>268038098.799544</v>
+        <v>41.30974999483002</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.406897621149794e-07</v>
+        <v>0.0001518921758287925</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>41.30974999483002</v>
+        <v>9.485759636049149</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001518921758287925</v>
+        <v>1.307220867455043</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.485759636049149</v>
+        <v>0.01366720267301714</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.307220867455043</v>
+        <v>2.784892890905852</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01366720267301714</v>
+        <v>0.9522756774482465</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.784892890905852</v>
+        <v>1.61077198618975</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9522756774482465</v>
+        <v>43</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.61077198618975</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2324235461776212</v>
       </c>
     </row>
@@ -7909,72 +7777,66 @@
         <v>5.901165732460394e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.01144348094826561</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.126344839239799</v>
+        <v>2.077920400344318e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.01755918522604577</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.077920400344318e-06</v>
+        <v>0.1552386585047568</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.01755918522604577</v>
+        <v>0.02440574742992102</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1552386585047568</v>
+        <v>1.833547335092003</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02440574742992102</v>
+        <v>1.790018191225601</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.787037531938852</v>
+        <v>4.18425413495716</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.790018191225601</v>
+        <v>6.169642964884504e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.18425413495716</v>
+        <v>244691842.6518048</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>6.169642964884504e-16</v>
+        <v>4.824347218076971e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>244691842.6518048</v>
+        <v>36.94018066428259</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.824347218076971e-07</v>
+        <v>0.000167024453380533</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>36.94018066428259</v>
+        <v>10.01554077045171</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.000167024453380533</v>
+        <v>1.263609590668439</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.01554077045171</v>
+        <v>0.01675439945085156</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.263609590668439</v>
+        <v>2.701088519599733</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01675439945085156</v>
+        <v>0.9516319923261478</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.701088519599733</v>
+        <v>1.610128716597371</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9516319923261478</v>
+        <v>36</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.610128716597371</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2330228996509115</v>
       </c>
     </row>
@@ -7989,72 +7851,66 @@
         <v>5.876229934681533e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.05973556188501634</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.097989991253922</v>
+        <v>2.076805115758918e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.02029599559670118</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.076805115758918e-06</v>
+        <v>0.156586423038826</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02029599559670118</v>
+        <v>0.02493037243298144</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.156586423038826</v>
+        <v>1.838474757941384</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02493037243298144</v>
+        <v>1.883916387502677</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.792925252643864</v>
+        <v>4.299873733342739</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.883916387502677</v>
+        <v>6.771642880388643e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.299873733342739</v>
+        <v>217288487.5290664</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.771642880388643e-16</v>
+        <v>5.404627392206521e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>217288487.5290664</v>
+        <v>31.97182891476391</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.404627392206521e-07</v>
+        <v>0.0001655368460635023</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>31.97182891476391</v>
+        <v>9.369411851135768</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001655368460635023</v>
+        <v>1.275019210342842</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.369411851135768</v>
+        <v>0.01453179744524312</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.275019210342842</v>
+        <v>2.79545022066119</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01453179744524312</v>
+        <v>0.9523551664432439</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.79545022066119</v>
+        <v>1.602502949456512</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9523551664432439</v>
+        <v>33</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.602502949456512</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.24021777184825</v>
       </c>
     </row>
@@ -8069,72 +7925,66 @@
         <v>5.852123012597903e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.113317978364467</v>
+        <v>1.969065641020661e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.066367541509515</v>
+        <v>2.075565521636161e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.969065641020661e-07</v>
+        <v>-0.02152282307313919</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.075565521636161e-06</v>
+        <v>0.1574226019300451</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02152282307313919</v>
+        <v>0.02524460282193322</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1574226019300451</v>
+        <v>1.848343929132581</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02524460282193322</v>
+        <v>1.764218141628271</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.812491636449081</v>
+        <v>4.36354976008535</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.764218141628271</v>
+        <v>7.694085135824389e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.36354976008535</v>
+        <v>190568283.1624739</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.694085135824389e-16</v>
+        <v>6.180627016012728e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>190568283.1624739</v>
+        <v>27.94204774080417</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.180627016012728e-07</v>
+        <v>0.0001396139191766609</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>27.94204774080417</v>
+        <v>8.531930371674157</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001396139191766609</v>
+        <v>1.25842060443072</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.531930371674157</v>
+        <v>0.01016303271730785</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.25842060443072</v>
+        <v>3.015907690525786</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01016303271730785</v>
+        <v>0.9533016014259342</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.015907690525786</v>
+        <v>1.565066431280768</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9533016014259342</v>
+        <v>33</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.565066431280768</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2844323431644465</v>
       </c>
     </row>
@@ -8511,7 +8361,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.206030985621282</v>
+        <v>1.20137941260711</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.642329779498925</v>
@@ -8600,7 +8450,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.2114280087268</v>
+        <v>1.205991276207059</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.638197758015408</v>
@@ -8689,7 +8539,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.228086963786812</v>
+        <v>1.224395418744061</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.62231696566228</v>
@@ -8778,7 +8628,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.256742150140553</v>
+        <v>1.251351935851613</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.592735265416685</v>
@@ -8867,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.331745140110262</v>
+        <v>1.334422598818859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.731440465226723</v>
@@ -8956,7 +8806,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.363506273449567</v>
+        <v>1.361866394319005</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.660704968274604</v>
@@ -9045,7 +8895,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.350652786516815</v>
+        <v>1.355086129042473</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.666719076234</v>
@@ -9134,7 +8984,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.357646225853243</v>
+        <v>1.362753765440756</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.639033490594838</v>
@@ -9223,7 +9073,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.353735830377543</v>
+        <v>1.356278991041931</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.658793956497927</v>
@@ -9312,7 +9162,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.348981697899019</v>
+        <v>1.352234714035344</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.64790658662945</v>
@@ -9401,7 +9251,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34946162147527</v>
+        <v>1.351792652201232</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.645901382825907</v>
@@ -9490,7 +9340,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.346764531856575</v>
+        <v>1.350173340773278</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.634458283022948</v>
@@ -9579,7 +9429,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.366542293091291</v>
+        <v>1.372512424097032</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.661429367163454</v>
@@ -9668,7 +9518,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.527490880597328</v>
+        <v>1.53047126962726</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.216487803140208</v>
@@ -9757,7 +9607,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.521341682834174</v>
+        <v>1.529134653936004</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.15310324845094</v>
@@ -9846,7 +9696,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.561330812825111</v>
+        <v>1.572112597564634</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.148453885006905</v>
@@ -9935,7 +9785,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.502926671246817</v>
+        <v>1.516991839351026</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.146910995412602</v>
@@ -10024,7 +9874,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.434270798863055</v>
+        <v>1.455875365822361</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.164746975184995</v>
@@ -10113,7 +9963,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.430766906855964</v>
+        <v>1.441340443050473</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.04942864874586</v>
@@ -10202,7 +10052,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.418485509810713</v>
+        <v>1.439526395008149</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.148696084500838</v>
@@ -10291,7 +10141,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.436528860859061</v>
+        <v>1.447563834117061</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.046627723228573</v>
@@ -10380,7 +10230,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.374060357996818</v>
+        <v>1.393328548981512</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.180025948016009</v>
@@ -10469,7 +10319,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.371967079059236</v>
+        <v>1.393826488597221</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.163149491923473</v>
@@ -10558,7 +10408,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.387939821062931</v>
+        <v>1.411725365299175</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.130283654359893</v>
@@ -10647,7 +10497,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.384042893901069</v>
+        <v>1.405683317291636</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.173518618231495</v>
@@ -10736,7 +10586,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.379413364584224</v>
+        <v>1.403544762940057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.160266503996594</v>
@@ -10825,7 +10675,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.382344002563337</v>
+        <v>1.405013349204675</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.156439805174974</v>
@@ -10914,7 +10764,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.371066409450461</v>
+        <v>1.394690120950424</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.14177217730078</v>
@@ -11003,7 +10853,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.353693042371979</v>
+        <v>1.375736580426389</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.241781665644954</v>
@@ -11092,7 +10942,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.361617776681614</v>
+        <v>1.383323549925335</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.200153546838433</v>
@@ -11181,7 +11031,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.351523070663695</v>
+        <v>1.370956076316252</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.073289349230236</v>
@@ -11270,7 +11120,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.407428549143018</v>
+        <v>1.427818117834776</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.040869489339797</v>
@@ -11359,7 +11209,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432809199487106</v>
+        <v>1.450938102054082</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.101747551921515</v>
@@ -11448,7 +11298,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.44751775002427</v>
+        <v>1.46818342190102</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.161516106102835</v>
@@ -11537,7 +11387,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.430402955069645</v>
+        <v>1.451182534978553</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.134426835295159</v>
@@ -11626,7 +11476,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461804779508203</v>
+        <v>1.485049836897656</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.189127439341164</v>
@@ -11715,7 +11565,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.493954420721175</v>
+        <v>1.510629552116159</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.191320214891472</v>
@@ -11804,7 +11654,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.496586420261668</v>
+        <v>1.512813311596862</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.132648057411351</v>
@@ -11893,7 +11743,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487401605930343</v>
+        <v>1.492683735390581</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.233838946336662</v>
@@ -11982,7 +11832,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.453577515511165</v>
+        <v>1.466894838147618</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.191927628276469</v>
@@ -12071,7 +11921,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.418228531560011</v>
+        <v>1.440526217125072</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.230564215123219</v>
@@ -12160,7 +12010,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.415597791618935</v>
+        <v>1.439881854032832</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.20672446121195</v>
@@ -12249,7 +12099,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.42910673819884</v>
+        <v>1.44940595260674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.283902852601266</v>
@@ -12338,7 +12188,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455644339898784</v>
+        <v>1.472597638965865</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.170971921794975</v>
@@ -12427,7 +12277,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456173908041881</v>
+        <v>1.469563708585451</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.180583428437989</v>
@@ -12516,7 +12366,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.437665213697813</v>
+        <v>1.451313664819197</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.123362224291683</v>
@@ -12605,7 +12455,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.433866070840084</v>
+        <v>1.443316384148026</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.123657238257441</v>
@@ -12694,7 +12544,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.428567480085585</v>
+        <v>1.439600318211241</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.204579539710712</v>
@@ -12783,7 +12633,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.448625806172617</v>
+        <v>1.458166024415897</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.143274713046325</v>
@@ -12872,7 +12722,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.47089638776733</v>
+        <v>1.475654826643935</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.138185175081232</v>
@@ -12961,7 +12811,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.475278394251417</v>
+        <v>1.477210014797112</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.13490055686847</v>
@@ -13050,7 +12900,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.503861406389598</v>
+        <v>1.507546547687097</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.106654675584665</v>
@@ -13139,7 +12989,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497979796789502</v>
+        <v>1.499410121461392</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.047535187972618</v>
@@ -13228,7 +13078,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.526018336484161</v>
+        <v>1.527084023794858</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.941736939884873</v>
@@ -13317,7 +13167,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.55178601614403</v>
+        <v>1.535161228172581</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.698945195825145</v>
@@ -13406,7 +13256,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.414415539262667</v>
+        <v>1.415578851172721</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.649636681459843</v>
@@ -13495,7 +13345,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.40802080767624</v>
+        <v>1.410376570096933</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.642407562221906</v>
@@ -13584,7 +13434,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.389255346546581</v>
+        <v>1.382751018568409</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.656482160349784</v>
@@ -13673,7 +13523,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.380367954220423</v>
+        <v>1.387125109776763</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.654816650375232</v>
@@ -13762,7 +13612,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.379095238276492</v>
+        <v>1.387390739936103</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.652322976960591</v>
@@ -13851,7 +13701,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.415573931005065</v>
+        <v>1.4219057707401</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.636313396575248</v>
@@ -13940,7 +13790,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.418454763172686</v>
+        <v>1.422706806706799</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.63929028183101</v>
@@ -14029,7 +13879,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.411090330775792</v>
+        <v>1.413951605001635</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.634749393119537</v>
@@ -14118,7 +13968,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.376494710781836</v>
+        <v>1.384606062687096</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.654742883766116</v>
@@ -14207,7 +14057,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.378312004006342</v>
+        <v>1.389375459962913</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.657079825353709</v>
@@ -14296,7 +14146,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.374944895076861</v>
+        <v>1.383955500719488</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.65623630407048</v>
@@ -14385,7 +14235,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.377365004999873</v>
+        <v>1.388662192425458</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.64092050413232</v>
@@ -14474,7 +14324,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.377596861242662</v>
+        <v>1.390493710435104</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.645041917154527</v>
@@ -14760,7 +14610,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.243610141503017</v>
+        <v>1.232750157659938</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.575581603926113</v>
@@ -14849,7 +14699,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.245537166947718</v>
+        <v>1.232710070973345</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.594686963402314</v>
@@ -14938,7 +14788,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.265818896125912</v>
+        <v>1.254063700019691</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.546999940320276</v>
@@ -15027,7 +14877,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.321307750676675</v>
+        <v>1.308213316730821</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.399708301944359</v>
@@ -15116,7 +14966,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.419173613536851</v>
+        <v>1.431593278714024</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.981363868740053</v>
@@ -15205,7 +15055,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452316807382567</v>
+        <v>1.454107654553806</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.910815925662746</v>
@@ -15294,7 +15144,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.433305821523101</v>
+        <v>1.442577550640718</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.029960314846107</v>
@@ -15383,7 +15233,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.461522490463158</v>
+        <v>1.468999295508686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.872459156295174</v>
@@ -15472,7 +15322,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441058906124421</v>
+        <v>1.449024794539727</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.980784663313206</v>
@@ -15561,7 +15411,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.439258964706274</v>
+        <v>1.4464115238897</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.982438200233595</v>
@@ -15650,7 +15500,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.429704408787703</v>
+        <v>1.433006068029608</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.017390399608266</v>
@@ -15739,7 +15589,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430639206733928</v>
+        <v>1.434473629462755</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.996543930615179</v>
@@ -15828,7 +15678,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.464902687469261</v>
+        <v>1.471080333810948</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.99620588822864</v>
@@ -15917,7 +15767,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482245556175804</v>
+        <v>1.490042458629953</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.963414432163843</v>
@@ -16006,7 +15856,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.433725945952542</v>
+        <v>1.440663279018961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.987918134173384</v>
@@ -16095,7 +15945,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.468050280648058</v>
+        <v>1.473743723720305</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.981227568081279</v>
@@ -16184,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.410268862927925</v>
+        <v>1.415693415463295</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.96515399220235</v>
@@ -16273,7 +16123,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346577060273781</v>
+        <v>1.355912660084609</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.902685546033706</v>
@@ -16362,7 +16212,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.347200941360493</v>
+        <v>1.350250671770651</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.864981559720268</v>
@@ -16451,7 +16301,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.330639539263699</v>
+        <v>1.340429864822417</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.906998632101231</v>
@@ -16540,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.347319583174236</v>
+        <v>1.350922290742822</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.861947557035788</v>
@@ -16629,7 +16479,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.290231667776996</v>
+        <v>1.295104676772346</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.942895840019672</v>
@@ -16718,7 +16568,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.294927009256581</v>
+        <v>1.3028850274321</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.94908874307375</v>
@@ -16807,7 +16657,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.309390558592164</v>
+        <v>1.318644332927295</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.908343624090189</v>
@@ -16896,7 +16746,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.320112195535982</v>
+        <v>1.331233880257543</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.97067795783534</v>
@@ -16985,7 +16835,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.306485218902056</v>
+        <v>1.320748111173896</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.978236839475628</v>
@@ -17074,7 +16924,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.307814128266509</v>
+        <v>1.321829113279801</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.96636874819703</v>
@@ -17163,7 +17013,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.310313385271398</v>
+        <v>1.325490515880821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.9945141712296</v>
@@ -17252,7 +17102,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.306144434831309</v>
+        <v>1.320153271608217</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.021795100512547</v>
@@ -17341,7 +17191,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.318685826309975</v>
+        <v>1.336546467745088</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.018512712205978</v>
@@ -17430,7 +17280,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.310134655867275</v>
+        <v>1.327952333537004</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.939138799447303</v>
@@ -17519,7 +17369,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.351184816500885</v>
+        <v>1.369610539848351</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.891751499772636</v>
@@ -17608,7 +17458,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.371206162567159</v>
+        <v>1.396055377595566</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.030174885551253</v>
@@ -17697,7 +17547,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.395209121910594</v>
+        <v>1.420696559307549</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.04543488918461</v>
@@ -17786,7 +17636,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.379257151667098</v>
+        <v>1.405416351189212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.023798113666114</v>
@@ -17875,7 +17725,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.399490842493281</v>
+        <v>1.427337937514315</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.019597350309269</v>
@@ -17964,7 +17814,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.424226321278798</v>
+        <v>1.452314045586472</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.1498524418443</v>
@@ -18053,7 +17903,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.420899081167608</v>
+        <v>1.445844243181829</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.107514736319212</v>
@@ -18142,7 +17992,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.40013766001616</v>
+        <v>1.420633143491302</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.099528826334409</v>
@@ -18231,7 +18081,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.382414399596782</v>
+        <v>1.404686125573049</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.178208564026205</v>
@@ -18320,7 +18170,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.38056656039632</v>
+        <v>1.406914422874434</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.133026598914769</v>
@@ -18409,7 +18259,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372482803908684</v>
+        <v>1.39961363899028</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.116179742990111</v>
@@ -18498,7 +18348,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.374386768625224</v>
+        <v>1.397541408393735</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.104167723182765</v>
@@ -18587,7 +18437,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.384871770354171</v>
+        <v>1.408782691034272</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.11456445309478</v>
@@ -18676,7 +18526,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.38976182265965</v>
+        <v>1.412603025972742</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.051584175403731</v>
@@ -18765,7 +18615,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.378582240577058</v>
+        <v>1.395050462411211</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.035613254730341</v>
@@ -18854,7 +18704,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.381294694875035</v>
+        <v>1.397676691311529</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.008446642168465</v>
@@ -18943,7 +18793,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.383945321418977</v>
+        <v>1.402543788712797</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.069211326016318</v>
@@ -19032,7 +18882,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.392241769682868</v>
+        <v>1.412206364440129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.059136829529326</v>
@@ -19121,7 +18971,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.414238915736919</v>
+        <v>1.433861370142433</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.095999688308701</v>
@@ -19210,7 +19060,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.419084289833928</v>
+        <v>1.438913051008676</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.087123920424083</v>
@@ -19299,7 +19149,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448227771148032</v>
+        <v>1.468244737608106</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.038022959413214</v>
@@ -19388,7 +19238,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.452666228689874</v>
+        <v>1.471319414010739</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.981525863688853</v>
@@ -19477,7 +19327,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.504851669445307</v>
+        <v>1.516068006485062</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.960179241410708</v>
@@ -19566,7 +19416,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.549137492653321</v>
+        <v>1.554675299034564</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.088107673746427</v>
@@ -19655,7 +19505,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589874133965819</v>
+        <v>1.586603986342728</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.930510654870033</v>
@@ -19744,7 +19594,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.605053121587351</v>
+        <v>1.599932137509862</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.931394831226428</v>
@@ -19833,7 +19683,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.555719389661866</v>
+        <v>1.54244236043633</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.955197159111388</v>
@@ -19922,7 +19772,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.546061652886953</v>
+        <v>1.550216723740072</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.951093988911244</v>
@@ -20011,7 +19861,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.557841568219711</v>
+        <v>1.563156601608219</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.984376174793943</v>
@@ -20100,7 +19950,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.65107545327027</v>
+        <v>1.649610813521333</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.1873220782638</v>
@@ -20189,7 +20039,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.656209618675791</v>
+        <v>1.649492267885288</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.104410066804539</v>
@@ -20278,7 +20128,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649951942673088</v>
+        <v>1.641408463903357</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.109624279241159</v>
@@ -20367,7 +20217,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.558936365916223</v>
+        <v>1.560616340272366</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.953835456537585</v>
@@ -20456,7 +20306,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.559182126000461</v>
+        <v>1.559990892447222</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.978642231966465</v>
@@ -20545,7 +20395,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.559375998956054</v>
+        <v>1.561106886280311</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.987580722480926</v>
@@ -20634,7 +20484,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.558366884558206</v>
+        <v>1.562464287437745</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.960610467830457</v>
@@ -20723,7 +20573,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.563973899020335</v>
+        <v>1.567047789084596</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.984649314815669</v>
@@ -21009,7 +20859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.528291729151781</v>
+        <v>1.527950628511201</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.16040755628215</v>
@@ -21098,7 +20948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.51629834771071</v>
+        <v>1.516972772634081</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.202079110307194</v>
@@ -21187,7 +21037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52020003283097</v>
+        <v>1.519385122070366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.164793765227895</v>
@@ -21276,7 +21126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.52991246129538</v>
+        <v>1.530422789855209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.086452958130006</v>
@@ -21365,7 +21215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.536536217036779</v>
+        <v>1.529916379618877</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.65950000076042</v>
@@ -21454,7 +21304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536562422462517</v>
+        <v>1.526427487000611</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.69471343292434</v>
@@ -21543,7 +21393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.529527398026304</v>
+        <v>1.52107006012272</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.64216891017363</v>
@@ -21632,7 +21482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.542620875345086</v>
+        <v>1.530674438903922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.197164975081793</v>
@@ -21721,7 +21571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54046417646364</v>
+        <v>1.524656462047999</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.723066563009676</v>
@@ -21810,7 +21660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.535340681799607</v>
+        <v>1.517418422859875</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.490354965588249</v>
@@ -21899,7 +21749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.558128959081879</v>
+        <v>1.537323157534866</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.739996928309343</v>
@@ -21988,7 +21838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555281189993799</v>
+        <v>1.534799084294798</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.598803339064805</v>
@@ -22077,7 +21927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.558678318817528</v>
+        <v>1.540332710753654</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.699052297599859</v>
@@ -22166,7 +22016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.581810387529977</v>
+        <v>1.565486385335136</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.543682571113694</v>
@@ -22255,7 +22105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582329033746985</v>
+        <v>1.559844191175373</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.799365361048285</v>
@@ -22344,7 +22194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589212108318045</v>
+        <v>1.567794886902304</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.854789845558754</v>
@@ -22433,7 +22283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608075060090919</v>
+        <v>1.585232005719608</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.743648334978296</v>
@@ -22522,7 +22372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.585654063903369</v>
+        <v>1.573178733835653</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.772568182924904</v>
@@ -22611,7 +22461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.585420821085369</v>
+        <v>1.566176132800186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.552298957400938</v>
@@ -22700,7 +22550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583778657421399</v>
+        <v>1.567466335719486</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.914365101782271</v>
@@ -22789,7 +22639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.586140116823885</v>
+        <v>1.563733321898161</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.719669999144635</v>
@@ -22878,7 +22728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571590963380963</v>
+        <v>1.555588286241268</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.840571554420358</v>
@@ -22967,7 +22817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581195045223514</v>
+        <v>1.569633728281888</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.8842546833317</v>
@@ -23056,7 +22906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593824090570795</v>
+        <v>1.5815272889579</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.689176674149485</v>
@@ -23145,7 +22995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.615071741001251</v>
+        <v>1.603028387177044</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.952417213977706</v>
@@ -23234,7 +23084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598517262419808</v>
+        <v>1.591122402346097</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.022630818309873</v>
@@ -23323,7 +23173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59539795409681</v>
+        <v>1.584544543798509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.860174815530466</v>
@@ -23412,7 +23262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.577540784962862</v>
+        <v>1.572171037283232</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.583457270412306</v>
@@ -23501,7 +23351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576791269982945</v>
+        <v>1.572180582520245</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.602568752413477</v>
@@ -23590,7 +23440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.579810099929961</v>
+        <v>1.577451867115189</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.605977300232489</v>
@@ -23679,7 +23529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593761157812624</v>
+        <v>1.584165675270612</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.534776593009776</v>
@@ -23768,7 +23618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.611809153720455</v>
+        <v>1.601820982278023</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.518256409522412</v>
@@ -23857,7 +23707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615937085892435</v>
+        <v>1.604519907988846</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.565899344424344</v>
@@ -23946,7 +23796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633580646307227</v>
+        <v>1.620349009088264</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.527769985522951</v>
@@ -24035,7 +23885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.614466359469326</v>
+        <v>1.603442341901995</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.591081482477596</v>
@@ -24124,7 +23974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.631795699915226</v>
+        <v>1.620300941938692</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.489552932180302</v>
@@ -24213,7 +24063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633099400078537</v>
+        <v>1.615430535104657</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.464442895809451</v>
@@ -24302,7 +24152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623612823074639</v>
+        <v>1.605042105261981</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.572239387106042</v>
@@ -24391,7 +24241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615817071787044</v>
+        <v>1.602405980535408</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.580061679697781</v>
@@ -24480,7 +24330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.6132832548369</v>
+        <v>1.599127304865574</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.64071634112003</v>
@@ -24569,7 +24419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622383277653997</v>
+        <v>1.612067897984302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.648313146309643</v>
@@ -24658,7 +24508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618718168281758</v>
+        <v>1.612697344691182</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.661902252119908</v>
@@ -24747,7 +24597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.64020210108786</v>
+        <v>1.623518382943904</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.982514160646428</v>
@@ -24836,7 +24686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640623221657161</v>
+        <v>1.621528589700157</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.727761799539986</v>
@@ -24925,7 +24775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631152995180217</v>
+        <v>1.61762029714537</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.699817951871063</v>
@@ -25014,7 +24864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609506130979766</v>
+        <v>1.599723462382102</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.54778124706654</v>
@@ -25103,7 +24953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61169322681611</v>
+        <v>1.596472195303827</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.557004591688238</v>
@@ -25192,7 +25042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.615118805680699</v>
+        <v>1.598269811998851</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.666358348242549</v>
@@ -25281,7 +25131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621377673749966</v>
+        <v>1.602052222991053</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.541361018386867</v>
@@ -25370,7 +25220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.636113753850179</v>
+        <v>1.613857694217326</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.741474014515269</v>
@@ -25459,7 +25309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.630229978959078</v>
+        <v>1.605480763722867</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.836014026133391</v>
@@ -25548,7 +25398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.639199487543599</v>
+        <v>1.616782180451246</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.638341488575055</v>
@@ -25637,7 +25487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.622388893080019</v>
+        <v>1.598354688111624</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.714643054599065</v>
@@ -25726,7 +25576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.626834911225191</v>
+        <v>1.60154502101349</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.599833059562068</v>
@@ -25815,7 +25665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.629191474490329</v>
+        <v>1.597286374198258</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.484944289157147</v>
@@ -25904,7 +25754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.574848825939872</v>
+        <v>1.548903361676635</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.485585608949845</v>
@@ -25993,7 +25843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578547319104787</v>
+        <v>1.546039280288061</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.731317422544818</v>
@@ -26082,7 +25932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.573805519940282</v>
+        <v>1.544338969625267</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.69395763970613</v>
@@ -26171,7 +26021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567908431757067</v>
+        <v>1.53852747799155</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.764745818366494</v>
@@ -26260,7 +26110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.566551571109642</v>
+        <v>1.532689018407728</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.583082210383692</v>
@@ -26349,7 +26199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.584693224148543</v>
+        <v>1.54755594930266</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.751842091893907</v>
@@ -26438,7 +26288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.582079097934113</v>
+        <v>1.550082871889618</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.835064340957985</v>
@@ -26527,7 +26377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.558919442161969</v>
+        <v>1.530519969523648</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.792141176947139</v>
@@ -26616,7 +26466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.551510889914386</v>
+        <v>1.523192231777819</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.712506486473051</v>
@@ -26705,7 +26555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.552109119579917</v>
+        <v>1.527466858508323</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.658108927144998</v>
@@ -26794,7 +26644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.558522700640046</v>
+        <v>1.53290778750365</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.713379691046093</v>
@@ -26883,7 +26733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.55593485215766</v>
+        <v>1.528128477995378</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.661741935146611</v>
@@ -26972,7 +26822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.566642703036345</v>
+        <v>1.539905045894459</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.817698325971658</v>
@@ -27258,7 +27108,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647822157113064</v>
+        <v>1.673980189278532</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.324449382445098</v>
@@ -27347,7 +27197,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.640450456448103</v>
+        <v>1.672769198138173</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.324051614203987</v>
@@ -27436,7 +27286,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.64518389521194</v>
+        <v>1.680453984924067</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.332238995278743</v>
@@ -27525,7 +27375,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665171813474536</v>
+        <v>1.693654983969946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.296365941018697</v>
@@ -27614,7 +27464,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645169176967157</v>
+        <v>1.649656497994841</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.079109597692176</v>
@@ -27703,7 +27553,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.646271830872336</v>
+        <v>1.645154414130744</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.022798916292844</v>
@@ -27792,7 +27642,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619091764977863</v>
+        <v>1.618225979342983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.845237982625723</v>
@@ -27881,7 +27731,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.624669529842406</v>
+        <v>1.61855436061106</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.480470636944307</v>
@@ -27970,7 +27820,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.637630863986206</v>
+        <v>1.626101519639138</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.598681075079166</v>
@@ -28059,7 +27909,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640663110325459</v>
+        <v>1.635295914696036</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.952811247253395</v>
@@ -28148,7 +27998,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.645651042353195</v>
+        <v>1.636051950433605</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.063594043948217</v>
@@ -28237,7 +28087,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.651933084410286</v>
+        <v>1.636994006745674</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.955732529664793</v>
@@ -28326,7 +28176,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64617213792192</v>
+        <v>1.631890554044893</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.989798670096528</v>
@@ -28415,7 +28265,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67081598403572</v>
+        <v>1.649519579318365</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.200818714385052</v>
@@ -28504,7 +28354,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670428445937643</v>
+        <v>1.647151818146212</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.081527904449607</v>
@@ -28593,7 +28443,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.736819337927759</v>
+        <v>1.713534426583564</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.457299046563219</v>
@@ -28682,7 +28532,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.72422701206445</v>
+        <v>1.703526560163537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.635806210296728</v>
@@ -28771,7 +28621,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.714681964963491</v>
+        <v>1.692574298215507</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.844970557245473</v>
@@ -28860,7 +28710,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.700630265967367</v>
+        <v>1.683712643251585</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.685141115112906</v>
@@ -28949,7 +28799,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.703307951637649</v>
+        <v>1.684731997254366</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.628208198939229</v>
@@ -29038,7 +28888,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71148731934322</v>
+        <v>1.688220342578161</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.860701931445583</v>
@@ -29127,7 +28977,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.738753650968273</v>
+        <v>1.712822151748568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.749333693352071</v>
@@ -29216,7 +29066,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.754293796228021</v>
+        <v>1.737993858757708</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.916120036421879</v>
@@ -29305,7 +29155,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.757575958300514</v>
+        <v>1.742954070223575</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.942649036999699</v>
@@ -29394,7 +29244,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.758890623221196</v>
+        <v>1.744648717686962</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.731193789104925</v>
@@ -29483,7 +29333,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.728978865008431</v>
+        <v>1.723034175398559</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.037102282089429</v>
@@ -29572,7 +29422,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.724642742892052</v>
+        <v>1.723351863585699</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.998708646367578</v>
@@ -29661,7 +29511,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.757329638449648</v>
+        <v>1.759731458746136</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.928291000614367</v>
@@ -29750,7 +29600,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.781571480727405</v>
+        <v>1.783283444187144</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.922184843557879</v>
@@ -29839,7 +29689,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.777688569198639</v>
+        <v>1.777502863893732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.89651953096903</v>
@@ -29928,7 +29778,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.769209731704461</v>
+        <v>1.762612431523994</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.953079355966617</v>
@@ -30017,7 +29867,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.770254895014246</v>
+        <v>1.758984924800895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.747266086202734</v>
@@ -30106,7 +29956,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.768476331319786</v>
+        <v>1.758957837049506</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.905412328742225</v>
@@ -30195,7 +30045,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.775212165378015</v>
+        <v>1.765447437644444</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.932090563096531</v>
@@ -30284,7 +30134,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.773491629427159</v>
+        <v>1.763115460230642</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.829492295560831</v>
@@ -30373,7 +30223,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.766103790482874</v>
+        <v>1.75804035800474</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.794985171496954</v>
@@ -30462,7 +30312,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.761145558531421</v>
+        <v>1.753414114672451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.780189264377415</v>
@@ -30551,7 +30401,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.744294681903872</v>
+        <v>1.734871298411933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.714517547598579</v>
@@ -30640,7 +30490,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.741122506018104</v>
+        <v>1.729270208836232</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.590444411252953</v>
@@ -30729,7 +30579,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.755023272100395</v>
+        <v>1.745802176996885</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.95449056247418</v>
@@ -30818,7 +30668,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.816594100976673</v>
+        <v>1.811182065074613</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.809290003254114</v>
@@ -30907,7 +30757,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.810381841165781</v>
+        <v>1.806137600451351</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.802421193738343</v>
@@ -30996,7 +30846,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.800629481424882</v>
+        <v>1.794505839086582</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.301983550918147</v>
@@ -31085,7 +30935,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.747373782042863</v>
+        <v>1.743453885337897</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.537613859052896</v>
@@ -31174,7 +31024,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.749763990311806</v>
+        <v>1.746869430257053</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.452083846481878</v>
@@ -31263,7 +31113,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.740202856062436</v>
+        <v>1.736023762314609</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.439448201550438</v>
@@ -31352,7 +31202,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.733627116847723</v>
+        <v>1.734817488211093</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.478566760696102</v>
@@ -31441,7 +31291,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.714966614753995</v>
+        <v>1.717842476541225</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.435579905279723</v>
@@ -31530,7 +31380,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.71737691667298</v>
+        <v>1.718564304689933</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.482303890313156</v>
@@ -31619,7 +31469,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.73278952588596</v>
+        <v>1.728821916249405</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.431879533252173</v>
@@ -31708,7 +31558,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723903489088138</v>
+        <v>1.722175422094691</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.490085380255973</v>
@@ -31797,7 +31647,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.726171975689278</v>
+        <v>1.720507831608989</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.496191155905235</v>
@@ -31886,7 +31736,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.709364261741303</v>
+        <v>1.705930768234035</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.405341105429701</v>
@@ -31975,7 +31825,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.711572428805564</v>
+        <v>1.707544871180242</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.44073859344043</v>
@@ -32064,7 +31914,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.690192409759774</v>
+        <v>1.681751325967505</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.259669115039203</v>
@@ -32153,7 +32003,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567896405622881</v>
+        <v>1.544027129290266</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.357096944426743</v>
@@ -32242,7 +32092,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.580485415791361</v>
+        <v>1.54779026273855</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.673700415918717</v>
@@ -32331,7 +32181,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.586985432595816</v>
+        <v>1.556140283974012</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.725021974059596</v>
@@ -32420,7 +32270,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.597596816323631</v>
+        <v>1.564288857396942</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.730764340482505</v>
@@ -32509,7 +32359,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.589063551524371</v>
+        <v>1.556549327957877</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.65241730785809</v>
@@ -32598,7 +32448,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588587713772072</v>
+        <v>1.555219165908227</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.553986721798703</v>
@@ -32687,7 +32537,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.57871507304057</v>
+        <v>1.547500222574776</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.699154656955459</v>
@@ -32776,7 +32626,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.592367301033269</v>
+        <v>1.557361445632382</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.845079238841139</v>
@@ -32865,7 +32715,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.594239968435936</v>
+        <v>1.555288637575804</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.855910722206707</v>
@@ -32954,7 +32804,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57234473276859</v>
+        <v>1.539163868899251</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.664346989496064</v>
@@ -33043,7 +32893,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.578617460010318</v>
+        <v>1.547224638820511</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.619484727165234</v>
@@ -33132,7 +32982,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.591874976780498</v>
+        <v>1.560764961056782</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.31528390681348</v>
@@ -33221,7 +33071,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.598780773317348</v>
+        <v>1.57297335624162</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.035079689418803</v>
@@ -33507,7 +33357,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.733000453926319</v>
+        <v>1.762014652049992</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.329733528634452</v>
@@ -33596,7 +33446,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.734103259592437</v>
+        <v>1.762400706389311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.279222285655421</v>
@@ -33685,7 +33535,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.732855334422537</v>
+        <v>1.761252215633559</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.295429410980775</v>
@@ -33774,7 +33624,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.739905380893446</v>
+        <v>1.764672070932134</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.022862198047722</v>
@@ -33863,7 +33713,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.70102392871847</v>
+        <v>1.700720514466733</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.615251512990199</v>
@@ -33952,7 +33802,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701542988839011</v>
+        <v>1.698630250144999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.743854569577511</v>
@@ -34041,7 +33891,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653916979346092</v>
+        <v>1.648736488102843</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.248304766311846</v>
@@ -34130,7 +33980,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654124364794465</v>
+        <v>1.643136809932847</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.993924443655337</v>
@@ -34219,7 +34069,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.656919073637827</v>
+        <v>1.641756169683242</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.149277109878494</v>
@@ -34308,7 +34158,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67718957762979</v>
+        <v>1.659051216291239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.053078007749483</v>
@@ -34397,7 +34247,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.680026774912714</v>
+        <v>1.652159032388676</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.073011764730058</v>
@@ -34486,7 +34336,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.68612199512364</v>
+        <v>1.65596042276711</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.917961419787943</v>
@@ -34575,7 +34425,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.685703480025427</v>
+        <v>1.655674585241744</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.034410380633275</v>
@@ -34664,7 +34514,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.722414598974239</v>
+        <v>1.678734631566049</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.212500439487623</v>
@@ -34753,7 +34603,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.705893039453716</v>
+        <v>1.668772826155482</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.310508202884652</v>
@@ -34842,7 +34692,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.754427265957864</v>
+        <v>1.728678990498306</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.314393769796739</v>
@@ -34931,7 +34781,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.748708590144848</v>
+        <v>1.72232506382418</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.420476958890526</v>
@@ -35020,7 +34870,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.721411389773746</v>
+        <v>1.698418049809278</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.423710930214209</v>
@@ -35109,7 +34959,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.709281531730751</v>
+        <v>1.683167580547262</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.385413825009974</v>
@@ -35198,7 +35048,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713598678264988</v>
+        <v>1.687220500795398</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.405353303079137</v>
@@ -35287,7 +35137,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.708373324262791</v>
+        <v>1.681954270477465</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.394203324458782</v>
@@ -35376,7 +35226,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.695687176801335</v>
+        <v>1.671083721256848</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.407434080193946</v>
@@ -35465,7 +35315,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.719669838534146</v>
+        <v>1.69826286141546</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.5177265725411</v>
@@ -35554,7 +35404,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.711481200464251</v>
+        <v>1.689099554474481</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.523242860413008</v>
@@ -35643,7 +35493,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71074300993359</v>
+        <v>1.690326737435805</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.536979772755179</v>
@@ -35732,7 +35582,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.711081751344079</v>
+        <v>1.69763239316595</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.579555375019028</v>
@@ -35821,7 +35671,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.711110091521744</v>
+        <v>1.700887315209989</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.537359481658473</v>
@@ -35910,7 +35760,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.749023137733293</v>
+        <v>1.75043364451089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.746612624199971</v>
@@ -35999,7 +35849,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765525045570615</v>
+        <v>1.767585918859736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.587835231836148</v>
@@ -36088,7 +35938,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.770681974561499</v>
+        <v>1.77073007341897</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.560064283948611</v>
@@ -36177,7 +36027,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.771382738793694</v>
+        <v>1.765692939130248</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.649607952346478</v>
@@ -36266,7 +36116,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.767490162640042</v>
+        <v>1.764526309625964</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.547575721535071</v>
@@ -36355,7 +36205,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.780204171218769</v>
+        <v>1.774800849782183</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.583183523245364</v>
@@ -36444,7 +36294,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.783012462947125</v>
+        <v>1.77696135428592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.590165539364639</v>
@@ -36533,7 +36383,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.779382682866019</v>
+        <v>1.773812090423457</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.571873404439189</v>
@@ -36622,7 +36472,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.788494580009217</v>
+        <v>1.781403536970721</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.542732021988555</v>
@@ -36711,7 +36561,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.798375762455449</v>
+        <v>1.790575701624886</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.550145203761852</v>
@@ -36800,7 +36650,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.79233200210048</v>
+        <v>1.783710261082667</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.538075183851699</v>
@@ -36889,7 +36739,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.809415034240776</v>
+        <v>1.804216825285141</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.59571762984317</v>
@@ -36978,7 +36828,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.820588348576557</v>
+        <v>1.812527624682101</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.554428229703695</v>
@@ -37067,7 +36917,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.8558508486476</v>
+        <v>1.850112538156197</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.740187903960436</v>
@@ -37156,7 +37006,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.856786156687621</v>
+        <v>1.847393644067552</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.718360197380937</v>
@@ -37245,7 +37095,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.860560366919623</v>
+        <v>1.845310602549494</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.334071676033223</v>
@@ -37334,7 +37184,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.861419389064281</v>
+        <v>1.844201617503121</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.325722467916108</v>
@@ -37423,7 +37273,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.858198025178015</v>
+        <v>1.840891971873726</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.400690879116548</v>
@@ -37512,7 +37362,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.850069155622788</v>
+        <v>1.836484115370107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.369132648439984</v>
@@ -37601,7 +37451,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.841865417186984</v>
+        <v>1.831167928106183</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.345501997967495</v>
@@ -37690,7 +37540,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.834282851475362</v>
+        <v>1.82398848776618</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.361443368417597</v>
@@ -37779,7 +37629,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.845310079731993</v>
+        <v>1.837844706240795</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.388891730065008</v>
@@ -37868,7 +37718,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.846784567862117</v>
+        <v>1.837765368455026</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.344263891337186</v>
@@ -37957,7 +37807,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.841688267187919</v>
+        <v>1.832927268006092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.357151787424689</v>
@@ -38046,7 +37896,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.840513929985041</v>
+        <v>1.833472933598565</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.272880108081942</v>
@@ -38135,7 +37985,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.834000397666419</v>
+        <v>1.828563713497335</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.314305487464688</v>
@@ -38224,7 +38074,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.826849734873805</v>
+        <v>1.819942294227223</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.25704107648335</v>
@@ -38313,7 +38163,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.825317583763743</v>
+        <v>1.816589334859364</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.197385974959434</v>
@@ -38402,7 +38252,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.689532530625667</v>
+        <v>1.679759715348835</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.197323800298868</v>
@@ -38491,7 +38341,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.684092933296021</v>
+        <v>1.680188425742125</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.089303682453252</v>
@@ -38580,7 +38430,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.692795643184835</v>
+        <v>1.681108175821125</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.920945641110314</v>
@@ -38669,7 +38519,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.690679231939594</v>
+        <v>1.67571912995326</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.92599003047355</v>
@@ -38758,7 +38608,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.684987685460509</v>
+        <v>1.665257643487973</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.033856790046449</v>
@@ -38847,7 +38697,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.692259477984557</v>
+        <v>1.672071340328933</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.12117310043263</v>
@@ -38936,7 +38786,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.685686902584924</v>
+        <v>1.664769877663684</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.147523333375351</v>
@@ -39025,7 +38875,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.673230610406039</v>
+        <v>1.657643760391964</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.000246870855689</v>
@@ -39114,7 +38964,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.651461778704786</v>
+        <v>1.632639434173794</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.229212913374574</v>
@@ -39203,7 +39053,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.651710629235421</v>
+        <v>1.636229739648863</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.257087800340659</v>
@@ -39292,7 +39142,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.663225817377668</v>
+        <v>1.639915195769396</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.1201138816889</v>
@@ -39381,7 +39231,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.660026230358258</v>
+        <v>1.632964071818807</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.06455463104112</v>
@@ -39470,7 +39320,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.646920648966914</v>
+        <v>1.620790865659151</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.261183876052395</v>
@@ -39756,7 +39606,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397035350617715</v>
+        <v>1.417360502693443</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.102252819180467</v>
@@ -39845,7 +39695,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411271958012632</v>
+        <v>1.430436683374521</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.962392659584729</v>
@@ -39934,7 +39784,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.437070737183138</v>
+        <v>1.457950209344011</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.072881999644489</v>
@@ -40023,7 +39873,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.473384960871644</v>
+        <v>1.487664460136595</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.057253265966501</v>
@@ -40112,7 +39962,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50070350595862</v>
+        <v>1.509549898366565</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.127219246134262</v>
@@ -40201,7 +40051,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543096839258864</v>
+        <v>1.542295038460928</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.090048256783506</v>
@@ -40290,7 +40140,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534267342819421</v>
+        <v>1.540346182058252</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.258813953956526</v>
@@ -40379,7 +40229,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543891671560832</v>
+        <v>1.54887815788997</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.071435625219666</v>
@@ -40468,7 +40318,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.530733599442251</v>
+        <v>1.533944819173517</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.237658512373635</v>
@@ -40557,7 +40407,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525542055283505</v>
+        <v>1.53134677059063</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.254250293663488</v>
@@ -40646,7 +40496,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532737402609569</v>
+        <v>1.53616386862523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.265366201527412</v>
@@ -40735,7 +40585,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546242039817361</v>
+        <v>1.548105989012603</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.273174570390684</v>
@@ -40824,7 +40674,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56590056093646</v>
+        <v>1.569691957814934</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.269050697993451</v>
@@ -40913,7 +40763,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587890240005576</v>
+        <v>1.589094979689309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.27386821118918</v>
@@ -41002,7 +40852,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555411998150443</v>
+        <v>1.55646492490301</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.240855207568826</v>
@@ -41091,7 +40941,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601029347992491</v>
+        <v>1.602110824377874</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.214981520138235</v>
@@ -41180,7 +41030,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556434535641107</v>
+        <v>1.55824852142818</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.188740687585567</v>
@@ -41269,7 +41119,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493031166508313</v>
+        <v>1.505368953524167</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.199618602357793</v>
@@ -41358,7 +41208,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.486930179115788</v>
+        <v>1.48892962022315</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.083186624046758</v>
@@ -41447,7 +41297,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.478363972000828</v>
+        <v>1.488839699314653</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.134513419043706</v>
@@ -41536,7 +41386,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.488650269331603</v>
+        <v>1.488801832191565</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.081580097267255</v>
@@ -41625,7 +41475,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.423458670481389</v>
+        <v>1.429984373963714</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.212116231167693</v>
@@ -41714,7 +41564,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.437410531875808</v>
+        <v>1.450432897707399</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.19253679628384</v>
@@ -41803,7 +41653,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.463712699461165</v>
+        <v>1.479796328697535</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.157844447986287</v>
@@ -41892,7 +41742,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463717123699617</v>
+        <v>1.477582104816114</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.180878799053047</v>
@@ -41981,7 +41831,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.455475064841147</v>
+        <v>1.472000205160055</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.196685724722157</v>
@@ -42070,7 +41920,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.45528973607509</v>
+        <v>1.470625557929793</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.242148074619354</v>
@@ -42159,7 +42009,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.468447799142828</v>
+        <v>1.486758737973761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.208252816746457</v>
@@ -42248,7 +42098,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.471626175226641</v>
+        <v>1.490451649238649</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.337349257358112</v>
@@ -42337,7 +42187,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.49273711796602</v>
+        <v>1.515734625417106</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.283658811207264</v>
@@ -42426,7 +42276,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.483101207644689</v>
+        <v>1.504428217209983</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.19772370055713</v>
@@ -42515,7 +42365,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529092044706915</v>
+        <v>1.546985579870658</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.182361387997655</v>
@@ -42604,7 +42454,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558940140756833</v>
+        <v>1.575730635392513</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.299652266609375</v>
@@ -42693,7 +42543,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594422693316996</v>
+        <v>1.61176458687556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.363219063132984</v>
@@ -42782,7 +42632,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580902301629182</v>
+        <v>1.598612053177146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.34939551002324</v>
@@ -42871,7 +42721,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.609525659525401</v>
+        <v>1.628579436993062</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.353121706131466</v>
@@ -42960,7 +42810,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.655100966557127</v>
+        <v>1.665196938826034</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.562863315161551</v>
@@ -43049,7 +42899,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.644232145079241</v>
+        <v>1.650412480544409</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.481997489539272</v>
@@ -43138,7 +42988,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628087641222922</v>
+        <v>1.622730721060032</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.607520198597337</v>
@@ -43227,7 +43077,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589659808129414</v>
+        <v>1.595778059189717</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.495805684956439</v>
@@ -43316,7 +43166,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577927860415579</v>
+        <v>1.602946331914063</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.318493333590654</v>
@@ -43405,7 +43255,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.572766959758871</v>
+        <v>1.597095574590037</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.266211772294094</v>
@@ -43494,7 +43344,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56702705502836</v>
+        <v>1.589082743944316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.281300081685845</v>
@@ -43583,7 +43433,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.568081861407127</v>
+        <v>1.587151972125587</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.241211811314323</v>
@@ -43672,7 +43522,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.559780204858214</v>
+        <v>1.576311728497341</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.212933086938984</v>
@@ -43761,7 +43611,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537585245257476</v>
+        <v>1.558341590290504</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.148347296737539</v>
@@ -43850,7 +43700,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.534269251867957</v>
+        <v>1.554387414847614</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.18121902938173</v>
@@ -43939,7 +43789,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.532819770944221</v>
+        <v>1.547295357689917</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.190503878364573</v>
@@ -44028,7 +43878,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.531896286110675</v>
+        <v>1.545801470703643</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.156537465087779</v>
@@ -44117,7 +43967,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552207844381456</v>
+        <v>1.56487544725666</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.163776116631662</v>
@@ -44206,7 +44056,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.550845893945717</v>
+        <v>1.564288806029277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.165017343685666</v>
@@ -44295,7 +44145,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.573638412639251</v>
+        <v>1.586921324927868</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.1727030264599</v>
@@ -44384,7 +44234,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571325103629375</v>
+        <v>1.585142757866111</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.105089291907512</v>
@@ -44473,7 +44323,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.599238151998257</v>
+        <v>1.612673211287813</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.053818239211405</v>
@@ -44562,7 +44412,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.643996051307451</v>
+        <v>1.645891930685374</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.975642489789861</v>
@@ -44651,7 +44501,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.638205818486108</v>
+        <v>1.619085740363177</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.295502517289011</v>
@@ -44740,7 +44590,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.640901243520002</v>
+        <v>1.620135545482487</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.196711339258755</v>
@@ -44829,7 +44679,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.617203088292943</v>
+        <v>1.59067626958486</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.167890509987015</v>
@@ -44918,7 +44768,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.595901352516101</v>
+        <v>1.584132115958885</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.161938309994313</v>
@@ -45007,7 +44857,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.600822657247517</v>
+        <v>1.59422917883025</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.15242629968217</v>
@@ -45096,7 +44946,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.666034876808069</v>
+        <v>1.649728577508074</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.29495167763611</v>
@@ -45185,7 +45035,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.66552635063965</v>
+        <v>1.652618328004154</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.261243009203321</v>
@@ -45274,7 +45124,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.661167449896896</v>
+        <v>1.65685650704656</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.210986147294179</v>
@@ -45363,7 +45213,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.589431013128162</v>
+        <v>1.589752902945877</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.072695229324762</v>
@@ -45452,7 +45302,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.577225525587537</v>
+        <v>1.580212491943199</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.086018223347021</v>
@@ -45541,7 +45391,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.580214736984094</v>
+        <v>1.580287537621619</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.104799610513738</v>
@@ -45630,7 +45480,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588532478009952</v>
+        <v>1.588086521459036</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.073007233415815</v>
@@ -45719,7 +45569,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.589996388450881</v>
+        <v>1.589866629189445</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.06590091954862</v>
